--- a/supplementary_data/continent_sector_n_studies.xlsx
+++ b/supplementary_data/continent_sector_n_studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>Coastal and marine Ecosystems</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Terrestrial ecosystems</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>South America</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Oceania</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
     <t>D&amp;A</t>
   </si>
   <si>
@@ -91,6 +97,12 @@
     <t>594 (235-1239)</t>
   </si>
   <si>
+    <t>5529 (2957-9755)</t>
+  </si>
+  <si>
+    <t>7078 (2838-15628)</t>
+  </si>
+  <si>
     <t>460 (275-925)</t>
   </si>
   <si>
@@ -127,6 +139,12 @@
     <t>117 (50-367)</t>
   </si>
   <si>
+    <t>7729 (4487-14423)</t>
+  </si>
+  <si>
+    <t>4457 (2036-11717)</t>
+  </si>
+  <si>
     <t>296 (184-491)</t>
   </si>
   <si>
@@ -163,6 +181,12 @@
     <t>79 (44-192)</t>
   </si>
   <si>
+    <t>3783 (2201-7050)</t>
+  </si>
+  <si>
+    <t>2524 (1325-5178)</t>
+  </si>
+  <si>
     <t>384 (207-794)</t>
   </si>
   <si>
@@ -199,6 +223,12 @@
     <t>272 (125-568)</t>
   </si>
   <si>
+    <t>6623 (3777-12384)</t>
+  </si>
+  <si>
+    <t>6182 (3278-12777)</t>
+  </si>
+  <si>
     <t>1366 (699-2681)</t>
   </si>
   <si>
@@ -233,6 +263,54 @@
   </si>
   <si>
     <t>355 (155-873)</t>
+  </si>
+  <si>
+    <t>19622 (10796-34361)</t>
+  </si>
+  <si>
+    <t>15366 (7724-31305)</t>
+  </si>
+  <si>
+    <t>3674 (2400-5760)</t>
+  </si>
+  <si>
+    <t>1061 (605-1995)</t>
+  </si>
+  <si>
+    <t>21745 (14364-31884)</t>
+  </si>
+  <si>
+    <t>8868 (5002-15196)</t>
+  </si>
+  <si>
+    <t>5323 (3391-8104)</t>
+  </si>
+  <si>
+    <t>2251 (1220-4105)</t>
+  </si>
+  <si>
+    <t>13991 (9105-21466)</t>
+  </si>
+  <si>
+    <t>3762 (2089-7232)</t>
+  </si>
+  <si>
+    <t>20885 (14705-29783)</t>
+  </si>
+  <si>
+    <t>6764 (3999-11548)</t>
+  </si>
+  <si>
+    <t>5482 (3579-8202)</t>
+  </si>
+  <si>
+    <t>1922 (1047-3441)</t>
+  </si>
+  <si>
+    <t>57366 (38371-85227)</t>
+  </si>
+  <si>
+    <t>44373 (25594-78626)</t>
   </si>
 </sst>
 </file>
@@ -590,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,279 +690,369 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/supplementary_data/continent_sector_n_studies.xlsx
+++ b/supplementary_data/continent_sector_n_studies.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
-  <si>
-    <t>Coastal and marine Ecosystems</t>
-  </si>
-  <si>
-    <t>Human and managed systems</t>
-  </si>
-  <si>
-    <t>Mountains, snow and ice</t>
-  </si>
-  <si>
-    <t>Rivers, lakes, and soil moisture</t>
-  </si>
-  <si>
-    <t>Terrestrial ecosystems</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+  <si>
+    <t>Coastal and marine Ecosystems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Human and managed systems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Mountains, snow and ice (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Rivers, lakes, and soil moisture (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Terrestrial ecosystems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Other systems (WS&gt;1)</t>
+  </si>
+  <si>
+    <t>Total (WS&gt;5)</t>
   </si>
   <si>
     <t>South America</t>
@@ -55,6 +58,9 @@
     <t>Global</t>
   </si>
   <si>
+    <t>Without location</t>
+  </si>
+  <si>
     <t>D&amp;A</t>
   </si>
   <si>
@@ -100,7 +106,13 @@
     <t>5529 (2957-9755)</t>
   </si>
   <si>
-    <t>7078 (2838-15628)</t>
+    <t>3465 (1277-8215)</t>
+  </si>
+  <si>
+    <t>0 (0-0)</t>
+  </si>
+  <si>
+    <t>3613 (1561-7413)</t>
   </si>
   <si>
     <t>460 (275-925)</t>
@@ -142,7 +154,10 @@
     <t>7729 (4487-14423)</t>
   </si>
   <si>
-    <t>4457 (2036-11717)</t>
+    <t>1870 (823-5013)</t>
+  </si>
+  <si>
+    <t>2587 (1213-6704)</t>
   </si>
   <si>
     <t>296 (184-491)</t>
@@ -184,7 +199,10 @@
     <t>3783 (2201-7050)</t>
   </si>
   <si>
-    <t>2524 (1325-5178)</t>
+    <t>1423 (750-2912)</t>
+  </si>
+  <si>
+    <t>1101 (575-2266)</t>
   </si>
   <si>
     <t>384 (207-794)</t>
@@ -226,7 +244,10 @@
     <t>6623 (3777-12384)</t>
   </si>
   <si>
-    <t>6182 (3278-12777)</t>
+    <t>4416 (2391-8910)</t>
+  </si>
+  <si>
+    <t>1766 (887-3867)</t>
   </si>
   <si>
     <t>1366 (699-2681)</t>
@@ -268,7 +289,55 @@
     <t>19622 (10796-34361)</t>
   </si>
   <si>
-    <t>15366 (7724-31305)</t>
+    <t>4249 (1885-9546)</t>
+  </si>
+  <si>
+    <t>11117 (5839-21759)</t>
+  </si>
+  <si>
+    <t>830 (331-1744)</t>
+  </si>
+  <si>
+    <t>205 (56-689)</t>
+  </si>
+  <si>
+    <t>5614 (2485-11662)</t>
+  </si>
+  <si>
+    <t>2307 (799-6068)</t>
+  </si>
+  <si>
+    <t>1246 (470-2725)</t>
+  </si>
+  <si>
+    <t>496 (99-1488)</t>
+  </si>
+  <si>
+    <t>2850 (1150-6705)</t>
+  </si>
+  <si>
+    <t>956 (287-2893)</t>
+  </si>
+  <si>
+    <t>6480 (3089-12295)</t>
+  </si>
+  <si>
+    <t>1938 (664-4896)</t>
+  </si>
+  <si>
+    <t>1720 (875-3228)</t>
+  </si>
+  <si>
+    <t>519 (215-1336)</t>
+  </si>
+  <si>
+    <t>14498 (6382-30282)</t>
+  </si>
+  <si>
+    <t>5149 (1658-13868)</t>
+  </si>
+  <si>
+    <t>3956 (1517-11551)</t>
   </si>
   <si>
     <t>3674 (2400-5760)</t>
@@ -310,7 +379,10 @@
     <t>57366 (38371-85227)</t>
   </si>
   <si>
-    <t>44373 (25594-78626)</t>
+    <t>20419 (11697-35705)</t>
+  </si>
+  <si>
+    <t>23954 (13897-42921)</t>
   </si>
 </sst>
 </file>
@@ -668,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,359 +765,460 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>98</v>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1053,6 +1226,7 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
